--- a/biology/Zoologie/Brembodus/Brembodus.xlsx
+++ b/biology/Zoologie/Brembodus/Brembodus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brembodus ridens
 Brembodus est un genre éteint de poissons d’eau douce de l’ordre, également éteint, des Pycnodontiformes. Il vivait lors du Norien. Son espèce type et unique représentant est Brembodus ridens.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (13 mai 2020)[1] et Paleobiology Database                   (13 mai 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (13 mai 2020) et Paleobiology Database                   (13 mai 2020) :
 Brembodus ridens Tintori, 1981 †</t>
         </is>
       </c>
